--- a/exprebus-38-sabados-ns.xlsx
+++ b/exprebus-38-sabados-ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRACTICAS_WEB\JAVASCRIPT\horabondi-algoritmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31488046-12DB-4F29-874A-07D77E4FDFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929CD11-015A-4F10-A8C8-B14C7F9ACF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>tucuman</t>
   </si>
@@ -226,13 +226,34 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>[3,4]</t>
+  </si>
+  <si>
+    <t>[0,1,2,3]</t>
+  </si>
+  <si>
+    <t>[4,5]</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
+    <t>[6,7]</t>
+  </si>
+  <si>
+    <t>Frecuencias Verticales</t>
+  </si>
+  <si>
+    <t>[7,8,9]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +270,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +334,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -344,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -356,7 +409,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -366,9 +419,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -395,6 +445,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="S7:T7"/>
+      <selection activeCell="A21" sqref="A21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +758,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -735,7 +793,7 @@
       <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -761,34 +819,34 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -802,10 +860,10 @@
       <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -837,10 +895,10 @@
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -875,10 +933,10 @@
       <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
@@ -907,10 +965,10 @@
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -945,7 +1003,7 @@
       <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -980,10 +1038,10 @@
       <c r="C9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F9" t="s">
@@ -1006,7 +1064,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1015,10 +1073,10 @@
       <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F10" t="s">
@@ -1041,16 +1099,16 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1082,10 +1140,10 @@
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1108,6 +1166,41 @@
       </c>
       <c r="K12" s="4" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>0</v>
+      </c>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2</v>
+      </c>
+      <c r="D13" s="19">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19">
+        <v>4</v>
+      </c>
+      <c r="F13" s="19">
+        <v>5</v>
+      </c>
+      <c r="G13" s="19">
+        <v>6</v>
+      </c>
+      <c r="H13" s="19">
+        <v>7</v>
+      </c>
+      <c r="I13" s="19">
+        <v>8</v>
+      </c>
+      <c r="J13" s="19">
+        <v>9</v>
+      </c>
+      <c r="K13" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1132,7 +1225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -1143,7 +1236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>0.35416666666666669</v>
       </c>
@@ -1152,6 +1245,100 @@
       </c>
       <c r="C18" s="5" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
